--- a/website/static/saln/modified_summary_list_of_filers.xlsx
+++ b/website/static/saln/modified_summary_list_of_filers.xlsx
@@ -1,142 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\201-File-System\website\static\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43AA4FE-F779-4709-BE04-34281C144F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91E4A76E-8A90-4C62-B3D6-B5D14CA0B995}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet1'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>NO.</t>
-  </si>
-  <si>
-    <t>NAME OF EMPLOYEE</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>TIN</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>NETWORTH</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>Statement of Assets, Liabilities and Net Worth</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calendar Year </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>2023</t>
-    </r>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -168,60 +97,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -521,110 +600,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C100207-718E-4881-A560-7861B641305E}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col width="4.5703125" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="16.28515625" customWidth="1" style="3" min="2" max="4"/>
+    <col width="14.5703125" customWidth="1" style="4" min="5" max="5"/>
+    <col width="55" customWidth="1" style="3" min="6" max="6"/>
+    <col width="23.7109375" customWidth="1" style="15" min="7" max="7"/>
+    <col width="9.140625" customWidth="1" style="3" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>SUMMARY LIST OF FILERS</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Statement of Assets, Liabilities and Net Worth</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="N2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Calendar Year 2023</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>NO.</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>NAME OF EMPLOYEE</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="n"/>
+      <c r="D4" s="18" t="n"/>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>POSITION</t>
+        </is>
+      </c>
+      <c r="G4" s="19" t="inlineStr">
+        <is>
+          <t>NETWORTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="n"/>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>Middle Name</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="n"/>
+      <c r="F5" s="20" t="n"/>
+      <c r="G5" s="20" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
+      <c r="G8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="9" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="9" t="n"/>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="n"/>
+      <c r="B25" s="9" t="n"/>
+      <c r="C25" s="9" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="9" t="n"/>
+      <c r="F25" s="9" t="n"/>
+      <c r="G25" s="9" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n"/>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="G26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="n"/>
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="9" t="n"/>
+      <c r="D27" s="9" t="n"/>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="9" t="n"/>
+      <c r="G27" s="9" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n"/>
+      <c r="B28" s="9" t="n"/>
+      <c r="C28" s="9" t="n"/>
+      <c r="D28" s="9" t="n"/>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="9" t="n"/>
+      <c r="G28" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -638,13 +942,15 @@
     <mergeCell ref="G4:G5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.13" right="0.12" top="1.21" bottom="1.21" header="0.14000000000000001" footer="0.12"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.13" right="0.12" top="1.21" bottom="1.21" header="0.14" footer="0.12"/>
+  <pageSetup orientation="landscape" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;G
-&amp;"-,Italic"&amp;9NIA-RO1-AFD-AS-INT-Form09Rev.03</oddFooter>
+    <oddFooter>&amp;L&amp;"-,Italic"&amp;9 &amp;G_x000a_NIA-RO1-AFD-AS-INT-Form09Rev.03</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>